--- a/medicine/Mort/Peine_de_mort_en_Pennsylvanie/Peine_de_mort_en_Pennsylvanie.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Pennsylvanie/Peine_de_mort_en_Pennsylvanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Pennsylvanie, la pendaison fut un mode d'exécution légale jusqu'à l'adoption de la chaise électrique en 1913. L'État a exécuté trois personnes depuis le rétablissement de la peine de mort en 1978, tous par injection létale qui devint le mode d'exécution légal en 1990. Les condamnés exécutés avaient volontairement mis fin à leurs appels préférant la mort à l'attente. Le gouverneur démocrate Ed Rendell a signé au moins 85 ordres d'exécution avec date depuis 2000, aucun n'a abouti à une exécution. La Pennsylvanie est l'État qui détient les cas célèbres Mumia Abu-Jamal (dont la peine de mort a cependant été réduite en perpétuité en 2011) et Terry Williams. Le gouverneur ne peut commuer des condamnations que sur recommandation du comité des grâces. Une commission d'État bi-partite sur la peine de mort a été créée en décembre 2011[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Pennsylvanie, la pendaison fut un mode d'exécution légale jusqu'à l'adoption de la chaise électrique en 1913. L'État a exécuté trois personnes depuis le rétablissement de la peine de mort en 1978, tous par injection létale qui devint le mode d'exécution légal en 1990. Les condamnés exécutés avaient volontairement mis fin à leurs appels préférant la mort à l'attente. Le gouverneur démocrate Ed Rendell a signé au moins 85 ordres d'exécution avec date depuis 2000, aucun n'a abouti à une exécution. La Pennsylvanie est l'État qui détient les cas célèbres Mumia Abu-Jamal (dont la peine de mort a cependant été réduite en perpétuité en 2011) et Terry Williams. Le gouverneur ne peut commuer des condamnations que sur recommandation du comité des grâces. Une commission d'État bi-partite sur la peine de mort a été créée en décembre 2011,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Exécutions depuis 1974</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exécutions ont lieu à Benner Township, au Rockview State Correctional Institution.
-En décembre 2018 le couloir de la mort de Pennsylvanie compte 144 condamnés[3]. Depuis 1974, six condamnés ont été graciés en Pennsylvanie[4].
+En décembre 2018 le couloir de la mort de Pennsylvanie compte 144 condamnés. Depuis 1974, six condamnés ont été graciés en Pennsylvanie.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
